--- a/Benchmark/OEQ_Benchmark/existence.xlsx
+++ b/Benchmark/OEQ_Benchmark/existence.xlsx
@@ -25,310 +25,310 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>existence_0.png</t>
-  </si>
-  <si>
-    <t>existence_1.png</t>
-  </si>
-  <si>
-    <t>existence_2.png</t>
-  </si>
-  <si>
-    <t>existence_3.png</t>
-  </si>
-  <si>
-    <t>existence_4.png</t>
-  </si>
-  <si>
-    <t>existence_5.png</t>
-  </si>
-  <si>
-    <t>existence_6.png</t>
-  </si>
-  <si>
-    <t>existence_7.png</t>
-  </si>
-  <si>
-    <t>existence_8.png</t>
-  </si>
-  <si>
-    <t>existence_9.png</t>
-  </si>
-  <si>
-    <t>existence_10.png</t>
-  </si>
-  <si>
-    <t>existence_11.png</t>
-  </si>
-  <si>
-    <t>existence_12.png</t>
-  </si>
-  <si>
-    <t>existence_13.png</t>
-  </si>
-  <si>
-    <t>existence_14.png</t>
-  </si>
-  <si>
-    <t>existence_15.png</t>
-  </si>
-  <si>
-    <t>existence_16.png</t>
-  </si>
-  <si>
-    <t>existence_17.png</t>
-  </si>
-  <si>
-    <t>existence_18.png</t>
-  </si>
-  <si>
-    <t>existence_19.png</t>
-  </si>
-  <si>
-    <t>existence_20.png</t>
-  </si>
-  <si>
-    <t>existence_21.png</t>
-  </si>
-  <si>
-    <t>existence_22.png</t>
-  </si>
-  <si>
-    <t>existence_23.png</t>
-  </si>
-  <si>
-    <t>existence_24.png</t>
-  </si>
-  <si>
-    <t>existence_25.png</t>
-  </si>
-  <si>
-    <t>existence_26.png</t>
-  </si>
-  <si>
-    <t>existence_27.png</t>
-  </si>
-  <si>
-    <t>existence_28.png</t>
-  </si>
-  <si>
-    <t>existence_29.png</t>
-  </si>
-  <si>
-    <t>existence_30.png</t>
-  </si>
-  <si>
-    <t>existence_31.png</t>
-  </si>
-  <si>
-    <t>existence_32.png</t>
-  </si>
-  <si>
-    <t>existence_33.png</t>
-  </si>
-  <si>
-    <t>existence_34.png</t>
-  </si>
-  <si>
-    <t>existence_35.png</t>
-  </si>
-  <si>
-    <t>existence_36.png</t>
-  </si>
-  <si>
-    <t>existence_37.png</t>
-  </si>
-  <si>
-    <t>existence_38.png</t>
-  </si>
-  <si>
-    <t>existence_39.png</t>
-  </si>
-  <si>
-    <t>existence_40.png</t>
-  </si>
-  <si>
-    <t>existence_41.png</t>
-  </si>
-  <si>
-    <t>existence_42.png</t>
-  </si>
-  <si>
-    <t>existence_43.png</t>
-  </si>
-  <si>
-    <t>existence_44.png</t>
-  </si>
-  <si>
-    <t>existence_45.png</t>
-  </si>
-  <si>
-    <t>existence_46.png</t>
-  </si>
-  <si>
-    <t>existence_47.png</t>
-  </si>
-  <si>
-    <t>existence_48.png</t>
-  </si>
-  <si>
-    <t>existence_49.png</t>
-  </si>
-  <si>
-    <t>existence_50.png</t>
-  </si>
-  <si>
-    <t>existence_51.png</t>
-  </si>
-  <si>
-    <t>existence_52.png</t>
-  </si>
-  <si>
-    <t>existence_53.png</t>
-  </si>
-  <si>
-    <t>existence_54.png</t>
-  </si>
-  <si>
-    <t>existence_55.png</t>
-  </si>
-  <si>
-    <t>existence_56.png</t>
-  </si>
-  <si>
-    <t>existence_57.png</t>
-  </si>
-  <si>
-    <t>existence_58.png</t>
-  </si>
-  <si>
-    <t>existence_59.png</t>
-  </si>
-  <si>
-    <t>existence_60.png</t>
-  </si>
-  <si>
-    <t>existence_61.png</t>
-  </si>
-  <si>
-    <t>existence_62.png</t>
-  </si>
-  <si>
-    <t>existence_63.png</t>
-  </si>
-  <si>
-    <t>existence_64.png</t>
-  </si>
-  <si>
-    <t>existence_65.png</t>
-  </si>
-  <si>
-    <t>existence_66.png</t>
-  </si>
-  <si>
-    <t>existence_67.png</t>
-  </si>
-  <si>
-    <t>existence_68.png</t>
-  </si>
-  <si>
-    <t>existence_69.png</t>
-  </si>
-  <si>
-    <t>existence_70.png</t>
-  </si>
-  <si>
-    <t>existence_71.png</t>
-  </si>
-  <si>
-    <t>existence_72.png</t>
-  </si>
-  <si>
-    <t>existence_73.png</t>
-  </si>
-  <si>
-    <t>existence_74.png</t>
-  </si>
-  <si>
-    <t>existence_75.png</t>
-  </si>
-  <si>
-    <t>existence_76.png</t>
-  </si>
-  <si>
-    <t>existence_77.png</t>
-  </si>
-  <si>
-    <t>existence_78.png</t>
-  </si>
-  <si>
-    <t>existence_79.png</t>
-  </si>
-  <si>
-    <t>existence_80.png</t>
-  </si>
-  <si>
-    <t>existence_81.png</t>
-  </si>
-  <si>
-    <t>existence_82.png</t>
-  </si>
-  <si>
-    <t>existence_83.png</t>
-  </si>
-  <si>
-    <t>existence_84.png</t>
-  </si>
-  <si>
-    <t>existence_85.png</t>
-  </si>
-  <si>
-    <t>existence_86.png</t>
-  </si>
-  <si>
-    <t>existence_87.png</t>
-  </si>
-  <si>
-    <t>existence_88.png</t>
-  </si>
-  <si>
-    <t>existence_89.png</t>
-  </si>
-  <si>
-    <t>existence_90.png</t>
-  </si>
-  <si>
-    <t>existence_91.png</t>
-  </si>
-  <si>
-    <t>existence_92.png</t>
-  </si>
-  <si>
-    <t>existence_93.png</t>
-  </si>
-  <si>
-    <t>existence_94.png</t>
-  </si>
-  <si>
-    <t>existence_95.png</t>
-  </si>
-  <si>
-    <t>existence_96.png</t>
-  </si>
-  <si>
-    <t>existence_97.png</t>
-  </si>
-  <si>
-    <t>existence_98.png</t>
-  </si>
-  <si>
-    <t>existence_99.png</t>
-  </si>
-  <si>
-    <t>existence_100.png</t>
-  </si>
-  <si>
-    <t>existence_101.png</t>
+    <t>existence/existence_0.png</t>
+  </si>
+  <si>
+    <t>existence/existence_1.png</t>
+  </si>
+  <si>
+    <t>existence/existence_2.png</t>
+  </si>
+  <si>
+    <t>existence/existence_3.png</t>
+  </si>
+  <si>
+    <t>existence/existence_4.png</t>
+  </si>
+  <si>
+    <t>existence/existence_5.png</t>
+  </si>
+  <si>
+    <t>existence/existence_6.png</t>
+  </si>
+  <si>
+    <t>existence/existence_7.png</t>
+  </si>
+  <si>
+    <t>existence/existence_8.png</t>
+  </si>
+  <si>
+    <t>existence/existence_9.png</t>
+  </si>
+  <si>
+    <t>existence/existence_10.png</t>
+  </si>
+  <si>
+    <t>existence/existence_11.png</t>
+  </si>
+  <si>
+    <t>existence/existence_12.png</t>
+  </si>
+  <si>
+    <t>existence/existence_13.png</t>
+  </si>
+  <si>
+    <t>existence/existence_14.png</t>
+  </si>
+  <si>
+    <t>existence/existence_15.png</t>
+  </si>
+  <si>
+    <t>existence/existence_16.png</t>
+  </si>
+  <si>
+    <t>existence/existence_17.png</t>
+  </si>
+  <si>
+    <t>existence/existence_18.png</t>
+  </si>
+  <si>
+    <t>existence/existence_19.png</t>
+  </si>
+  <si>
+    <t>existence/existence_20.png</t>
+  </si>
+  <si>
+    <t>existence/existence_21.png</t>
+  </si>
+  <si>
+    <t>existence/existence_22.png</t>
+  </si>
+  <si>
+    <t>existence/existence_23.png</t>
+  </si>
+  <si>
+    <t>existence/existence_24.png</t>
+  </si>
+  <si>
+    <t>existence/existence_25.png</t>
+  </si>
+  <si>
+    <t>existence/existence_26.png</t>
+  </si>
+  <si>
+    <t>existence/existence_27.png</t>
+  </si>
+  <si>
+    <t>existence/existence_28.png</t>
+  </si>
+  <si>
+    <t>existence/existence_29.png</t>
+  </si>
+  <si>
+    <t>existence/existence_30.png</t>
+  </si>
+  <si>
+    <t>existence/existence_31.png</t>
+  </si>
+  <si>
+    <t>existence/existence_32.png</t>
+  </si>
+  <si>
+    <t>existence/existence_33.png</t>
+  </si>
+  <si>
+    <t>existence/existence_34.png</t>
+  </si>
+  <si>
+    <t>existence/existence_35.png</t>
+  </si>
+  <si>
+    <t>existence/existence_36.png</t>
+  </si>
+  <si>
+    <t>existence/existence_37.png</t>
+  </si>
+  <si>
+    <t>existence/existence_38.png</t>
+  </si>
+  <si>
+    <t>existence/existence_39.png</t>
+  </si>
+  <si>
+    <t>existence/existence_40.png</t>
+  </si>
+  <si>
+    <t>existence/existence_41.png</t>
+  </si>
+  <si>
+    <t>existence/existence_42.png</t>
+  </si>
+  <si>
+    <t>existence/existence_43.png</t>
+  </si>
+  <si>
+    <t>existence/existence_44.png</t>
+  </si>
+  <si>
+    <t>existence/existence_45.png</t>
+  </si>
+  <si>
+    <t>existence/existence_46.png</t>
+  </si>
+  <si>
+    <t>existence/existence_47.png</t>
+  </si>
+  <si>
+    <t>existence/existence_48.png</t>
+  </si>
+  <si>
+    <t>existence/existence_49.png</t>
+  </si>
+  <si>
+    <t>existence/existence_50.png</t>
+  </si>
+  <si>
+    <t>existence/existence_51.png</t>
+  </si>
+  <si>
+    <t>existence/existence_52.png</t>
+  </si>
+  <si>
+    <t>existence/existence_53.png</t>
+  </si>
+  <si>
+    <t>existence/existence_54.png</t>
+  </si>
+  <si>
+    <t>existence/existence_55.png</t>
+  </si>
+  <si>
+    <t>existence/existence_56.png</t>
+  </si>
+  <si>
+    <t>existence/existence_57.png</t>
+  </si>
+  <si>
+    <t>existence/existence_58.png</t>
+  </si>
+  <si>
+    <t>existence/existence_59.png</t>
+  </si>
+  <si>
+    <t>existence/existence_60.png</t>
+  </si>
+  <si>
+    <t>existence/existence_61.png</t>
+  </si>
+  <si>
+    <t>existence/existence_62.png</t>
+  </si>
+  <si>
+    <t>existence/existence_63.png</t>
+  </si>
+  <si>
+    <t>existence/existence_64.png</t>
+  </si>
+  <si>
+    <t>existence/existence_65.png</t>
+  </si>
+  <si>
+    <t>existence/existence_66.png</t>
+  </si>
+  <si>
+    <t>existence/existence_67.png</t>
+  </si>
+  <si>
+    <t>existence/existence_68.png</t>
+  </si>
+  <si>
+    <t>existence/existence_69.png</t>
+  </si>
+  <si>
+    <t>existence/existence_70.png</t>
+  </si>
+  <si>
+    <t>existence/existence_71.png</t>
+  </si>
+  <si>
+    <t>existence/existence_72.png</t>
+  </si>
+  <si>
+    <t>existence/existence_73.png</t>
+  </si>
+  <si>
+    <t>existence/existence_74.png</t>
+  </si>
+  <si>
+    <t>existence/existence_75.png</t>
+  </si>
+  <si>
+    <t>existence/existence_76.png</t>
+  </si>
+  <si>
+    <t>existence/existence_77.png</t>
+  </si>
+  <si>
+    <t>existence/existence_78.png</t>
+  </si>
+  <si>
+    <t>existence/existence_79.png</t>
+  </si>
+  <si>
+    <t>existence/existence_80.png</t>
+  </si>
+  <si>
+    <t>existence/existence_81.png</t>
+  </si>
+  <si>
+    <t>existence/existence_82.png</t>
+  </si>
+  <si>
+    <t>existence/existence_83.png</t>
+  </si>
+  <si>
+    <t>existence/existence_84.png</t>
+  </si>
+  <si>
+    <t>existence/existence_85.png</t>
+  </si>
+  <si>
+    <t>existence/existence_86.png</t>
+  </si>
+  <si>
+    <t>existence/existence_87.png</t>
+  </si>
+  <si>
+    <t>existence/existence_88.png</t>
+  </si>
+  <si>
+    <t>existence/existence_89.png</t>
+  </si>
+  <si>
+    <t>existence/existence_90.png</t>
+  </si>
+  <si>
+    <t>existence/existence_91.png</t>
+  </si>
+  <si>
+    <t>existence/existence_92.png</t>
+  </si>
+  <si>
+    <t>existence/existence_93.png</t>
+  </si>
+  <si>
+    <t>existence/existence_94.png</t>
+  </si>
+  <si>
+    <t>existence/existence_95.png</t>
+  </si>
+  <si>
+    <t>existence/existence_96.png</t>
+  </si>
+  <si>
+    <t>existence/existence_97.png</t>
+  </si>
+  <si>
+    <t>existence/existence_98.png</t>
+  </si>
+  <si>
+    <t>existence/existence_99.png</t>
+  </si>
+  <si>
+    <t>existence/existence_100.png</t>
+  </si>
+  <si>
+    <t>existence/existence_101.png</t>
   </si>
   <si>
     <t>Could you describe the green grass in the picture?</t>

--- a/Benchmark/OEQ_Benchmark/existence.xlsx
+++ b/Benchmark/OEQ_Benchmark/existence.xlsx
@@ -25,310 +25,310 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>existence/existence_0.png</t>
-  </si>
-  <si>
-    <t>existence/existence_1.png</t>
-  </si>
-  <si>
-    <t>existence/existence_2.png</t>
-  </si>
-  <si>
-    <t>existence/existence_3.png</t>
-  </si>
-  <si>
-    <t>existence/existence_4.png</t>
-  </si>
-  <si>
-    <t>existence/existence_5.png</t>
-  </si>
-  <si>
-    <t>existence/existence_6.png</t>
-  </si>
-  <si>
-    <t>existence/existence_7.png</t>
-  </si>
-  <si>
-    <t>existence/existence_8.png</t>
-  </si>
-  <si>
-    <t>existence/existence_9.png</t>
-  </si>
-  <si>
-    <t>existence/existence_10.png</t>
-  </si>
-  <si>
-    <t>existence/existence_11.png</t>
-  </si>
-  <si>
-    <t>existence/existence_12.png</t>
-  </si>
-  <si>
-    <t>existence/existence_13.png</t>
-  </si>
-  <si>
-    <t>existence/existence_14.png</t>
-  </si>
-  <si>
-    <t>existence/existence_15.png</t>
-  </si>
-  <si>
-    <t>existence/existence_16.png</t>
-  </si>
-  <si>
-    <t>existence/existence_17.png</t>
-  </si>
-  <si>
-    <t>existence/existence_18.png</t>
-  </si>
-  <si>
-    <t>existence/existence_19.png</t>
-  </si>
-  <si>
-    <t>existence/existence_20.png</t>
-  </si>
-  <si>
-    <t>existence/existence_21.png</t>
-  </si>
-  <si>
-    <t>existence/existence_22.png</t>
-  </si>
-  <si>
-    <t>existence/existence_23.png</t>
-  </si>
-  <si>
-    <t>existence/existence_24.png</t>
-  </si>
-  <si>
-    <t>existence/existence_25.png</t>
-  </si>
-  <si>
-    <t>existence/existence_26.png</t>
-  </si>
-  <si>
-    <t>existence/existence_27.png</t>
-  </si>
-  <si>
-    <t>existence/existence_28.png</t>
-  </si>
-  <si>
-    <t>existence/existence_29.png</t>
-  </si>
-  <si>
-    <t>existence/existence_30.png</t>
-  </si>
-  <si>
-    <t>existence/existence_31.png</t>
-  </si>
-  <si>
-    <t>existence/existence_32.png</t>
-  </si>
-  <si>
-    <t>existence/existence_33.png</t>
-  </si>
-  <si>
-    <t>existence/existence_34.png</t>
-  </si>
-  <si>
-    <t>existence/existence_35.png</t>
-  </si>
-  <si>
-    <t>existence/existence_36.png</t>
-  </si>
-  <si>
-    <t>existence/existence_37.png</t>
-  </si>
-  <si>
-    <t>existence/existence_38.png</t>
-  </si>
-  <si>
-    <t>existence/existence_39.png</t>
-  </si>
-  <si>
-    <t>existence/existence_40.png</t>
-  </si>
-  <si>
-    <t>existence/existence_41.png</t>
-  </si>
-  <si>
-    <t>existence/existence_42.png</t>
-  </si>
-  <si>
-    <t>existence/existence_43.png</t>
-  </si>
-  <si>
-    <t>existence/existence_44.png</t>
-  </si>
-  <si>
-    <t>existence/existence_45.png</t>
-  </si>
-  <si>
-    <t>existence/existence_46.png</t>
-  </si>
-  <si>
-    <t>existence/existence_47.png</t>
-  </si>
-  <si>
-    <t>existence/existence_48.png</t>
-  </si>
-  <si>
-    <t>existence/existence_49.png</t>
-  </si>
-  <si>
-    <t>existence/existence_50.png</t>
-  </si>
-  <si>
-    <t>existence/existence_51.png</t>
-  </si>
-  <si>
-    <t>existence/existence_52.png</t>
-  </si>
-  <si>
-    <t>existence/existence_53.png</t>
-  </si>
-  <si>
-    <t>existence/existence_54.png</t>
-  </si>
-  <si>
-    <t>existence/existence_55.png</t>
-  </si>
-  <si>
-    <t>existence/existence_56.png</t>
-  </si>
-  <si>
-    <t>existence/existence_57.png</t>
-  </si>
-  <si>
-    <t>existence/existence_58.png</t>
-  </si>
-  <si>
-    <t>existence/existence_59.png</t>
-  </si>
-  <si>
-    <t>existence/existence_60.png</t>
-  </si>
-  <si>
-    <t>existence/existence_61.png</t>
-  </si>
-  <si>
-    <t>existence/existence_62.png</t>
-  </si>
-  <si>
-    <t>existence/existence_63.png</t>
-  </si>
-  <si>
-    <t>existence/existence_64.png</t>
-  </si>
-  <si>
-    <t>existence/existence_65.png</t>
-  </si>
-  <si>
-    <t>existence/existence_66.png</t>
-  </si>
-  <si>
-    <t>existence/existence_67.png</t>
-  </si>
-  <si>
-    <t>existence/existence_68.png</t>
-  </si>
-  <si>
-    <t>existence/existence_69.png</t>
-  </si>
-  <si>
-    <t>existence/existence_70.png</t>
-  </si>
-  <si>
-    <t>existence/existence_71.png</t>
-  </si>
-  <si>
-    <t>existence/existence_72.png</t>
-  </si>
-  <si>
-    <t>existence/existence_73.png</t>
-  </si>
-  <si>
-    <t>existence/existence_74.png</t>
-  </si>
-  <si>
-    <t>existence/existence_75.png</t>
-  </si>
-  <si>
-    <t>existence/existence_76.png</t>
-  </si>
-  <si>
-    <t>existence/existence_77.png</t>
-  </si>
-  <si>
-    <t>existence/existence_78.png</t>
-  </si>
-  <si>
-    <t>existence/existence_79.png</t>
-  </si>
-  <si>
-    <t>existence/existence_80.png</t>
-  </si>
-  <si>
-    <t>existence/existence_81.png</t>
-  </si>
-  <si>
-    <t>existence/existence_82.png</t>
-  </si>
-  <si>
-    <t>existence/existence_83.png</t>
-  </si>
-  <si>
-    <t>existence/existence_84.png</t>
-  </si>
-  <si>
-    <t>existence/existence_85.png</t>
-  </si>
-  <si>
-    <t>existence/existence_86.png</t>
-  </si>
-  <si>
-    <t>existence/existence_87.png</t>
-  </si>
-  <si>
-    <t>existence/existence_88.png</t>
-  </si>
-  <si>
-    <t>existence/existence_89.png</t>
-  </si>
-  <si>
-    <t>existence/existence_90.png</t>
-  </si>
-  <si>
-    <t>existence/existence_91.png</t>
-  </si>
-  <si>
-    <t>existence/existence_92.png</t>
-  </si>
-  <si>
-    <t>existence/existence_93.png</t>
-  </si>
-  <si>
-    <t>existence/existence_94.png</t>
-  </si>
-  <si>
-    <t>existence/existence_95.png</t>
-  </si>
-  <si>
-    <t>existence/existence_96.png</t>
-  </si>
-  <si>
-    <t>existence/existence_97.png</t>
-  </si>
-  <si>
-    <t>existence/existence_98.png</t>
-  </si>
-  <si>
-    <t>existence/existence_99.png</t>
-  </si>
-  <si>
-    <t>existence/existence_100.png</t>
-  </si>
-  <si>
-    <t>existence/existence_101.png</t>
+    <t>existence_0.png</t>
+  </si>
+  <si>
+    <t>existence_1.png</t>
+  </si>
+  <si>
+    <t>existence_2.png</t>
+  </si>
+  <si>
+    <t>existence_3.png</t>
+  </si>
+  <si>
+    <t>existence_4.png</t>
+  </si>
+  <si>
+    <t>existence_5.png</t>
+  </si>
+  <si>
+    <t>existence_6.png</t>
+  </si>
+  <si>
+    <t>existence_7.png</t>
+  </si>
+  <si>
+    <t>existence_8.png</t>
+  </si>
+  <si>
+    <t>existence_9.png</t>
+  </si>
+  <si>
+    <t>existence_10.png</t>
+  </si>
+  <si>
+    <t>existence_11.png</t>
+  </si>
+  <si>
+    <t>existence_12.png</t>
+  </si>
+  <si>
+    <t>existence_13.png</t>
+  </si>
+  <si>
+    <t>existence_14.png</t>
+  </si>
+  <si>
+    <t>existence_15.png</t>
+  </si>
+  <si>
+    <t>existence_16.png</t>
+  </si>
+  <si>
+    <t>existence_17.png</t>
+  </si>
+  <si>
+    <t>existence_18.png</t>
+  </si>
+  <si>
+    <t>existence_19.png</t>
+  </si>
+  <si>
+    <t>existence_20.png</t>
+  </si>
+  <si>
+    <t>existence_21.png</t>
+  </si>
+  <si>
+    <t>existence_22.png</t>
+  </si>
+  <si>
+    <t>existence_23.png</t>
+  </si>
+  <si>
+    <t>existence_24.png</t>
+  </si>
+  <si>
+    <t>existence_25.png</t>
+  </si>
+  <si>
+    <t>existence_26.png</t>
+  </si>
+  <si>
+    <t>existence_27.png</t>
+  </si>
+  <si>
+    <t>existence_28.png</t>
+  </si>
+  <si>
+    <t>existence_29.png</t>
+  </si>
+  <si>
+    <t>existence_30.png</t>
+  </si>
+  <si>
+    <t>existence_31.png</t>
+  </si>
+  <si>
+    <t>existence_32.png</t>
+  </si>
+  <si>
+    <t>existence_33.png</t>
+  </si>
+  <si>
+    <t>existence_34.png</t>
+  </si>
+  <si>
+    <t>existence_35.png</t>
+  </si>
+  <si>
+    <t>existence_36.png</t>
+  </si>
+  <si>
+    <t>existence_37.png</t>
+  </si>
+  <si>
+    <t>existence_38.png</t>
+  </si>
+  <si>
+    <t>existence_39.png</t>
+  </si>
+  <si>
+    <t>existence_40.png</t>
+  </si>
+  <si>
+    <t>existence_41.png</t>
+  </si>
+  <si>
+    <t>existence_42.png</t>
+  </si>
+  <si>
+    <t>existence_43.png</t>
+  </si>
+  <si>
+    <t>existence_44.png</t>
+  </si>
+  <si>
+    <t>existence_45.png</t>
+  </si>
+  <si>
+    <t>existence_46.png</t>
+  </si>
+  <si>
+    <t>existence_47.png</t>
+  </si>
+  <si>
+    <t>existence_48.png</t>
+  </si>
+  <si>
+    <t>existence_49.png</t>
+  </si>
+  <si>
+    <t>existence_50.png</t>
+  </si>
+  <si>
+    <t>existence_51.png</t>
+  </si>
+  <si>
+    <t>existence_52.png</t>
+  </si>
+  <si>
+    <t>existence_53.png</t>
+  </si>
+  <si>
+    <t>existence_54.png</t>
+  </si>
+  <si>
+    <t>existence_55.png</t>
+  </si>
+  <si>
+    <t>existence_56.png</t>
+  </si>
+  <si>
+    <t>existence_57.png</t>
+  </si>
+  <si>
+    <t>existence_58.png</t>
+  </si>
+  <si>
+    <t>existence_59.png</t>
+  </si>
+  <si>
+    <t>existence_60.png</t>
+  </si>
+  <si>
+    <t>existence_61.png</t>
+  </si>
+  <si>
+    <t>existence_62.png</t>
+  </si>
+  <si>
+    <t>existence_63.png</t>
+  </si>
+  <si>
+    <t>existence_64.png</t>
+  </si>
+  <si>
+    <t>existence_65.png</t>
+  </si>
+  <si>
+    <t>existence_66.png</t>
+  </si>
+  <si>
+    <t>existence_67.png</t>
+  </si>
+  <si>
+    <t>existence_68.png</t>
+  </si>
+  <si>
+    <t>existence_69.png</t>
+  </si>
+  <si>
+    <t>existence_70.png</t>
+  </si>
+  <si>
+    <t>existence_71.png</t>
+  </si>
+  <si>
+    <t>existence_72.png</t>
+  </si>
+  <si>
+    <t>existence_73.png</t>
+  </si>
+  <si>
+    <t>existence_74.png</t>
+  </si>
+  <si>
+    <t>existence_75.png</t>
+  </si>
+  <si>
+    <t>existence_76.png</t>
+  </si>
+  <si>
+    <t>existence_77.png</t>
+  </si>
+  <si>
+    <t>existence_78.png</t>
+  </si>
+  <si>
+    <t>existence_79.png</t>
+  </si>
+  <si>
+    <t>existence_80.png</t>
+  </si>
+  <si>
+    <t>existence_81.png</t>
+  </si>
+  <si>
+    <t>existence_82.png</t>
+  </si>
+  <si>
+    <t>existence_83.png</t>
+  </si>
+  <si>
+    <t>existence_84.png</t>
+  </si>
+  <si>
+    <t>existence_85.png</t>
+  </si>
+  <si>
+    <t>existence_86.png</t>
+  </si>
+  <si>
+    <t>existence_87.png</t>
+  </si>
+  <si>
+    <t>existence_88.png</t>
+  </si>
+  <si>
+    <t>existence_89.png</t>
+  </si>
+  <si>
+    <t>existence_90.png</t>
+  </si>
+  <si>
+    <t>existence_91.png</t>
+  </si>
+  <si>
+    <t>existence_92.png</t>
+  </si>
+  <si>
+    <t>existence_93.png</t>
+  </si>
+  <si>
+    <t>existence_94.png</t>
+  </si>
+  <si>
+    <t>existence_95.png</t>
+  </si>
+  <si>
+    <t>existence_96.png</t>
+  </si>
+  <si>
+    <t>existence_97.png</t>
+  </si>
+  <si>
+    <t>existence_98.png</t>
+  </si>
+  <si>
+    <t>existence_99.png</t>
+  </si>
+  <si>
+    <t>existence_100.png</t>
+  </si>
+  <si>
+    <t>existence_101.png</t>
   </si>
   <si>
     <t>Could you describe the green grass in the picture?</t>
